--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.112896272857171</v>
+        <v>8.949600333333334</v>
       </c>
       <c r="H2">
-        <v>8.112896272857171</v>
+        <v>26.848801</v>
       </c>
       <c r="I2">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="J2">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N2">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P2">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q2">
-        <v>137.6368091393896</v>
+        <v>235.4816453146578</v>
       </c>
       <c r="R2">
-        <v>137.6368091393896</v>
+        <v>2119.33480783192</v>
       </c>
       <c r="S2">
-        <v>0.03489334053320414</v>
+        <v>0.0506639160165416</v>
       </c>
       <c r="T2">
-        <v>0.03489334053320414</v>
+        <v>0.0506639160165416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.112896272857171</v>
+        <v>8.949600333333334</v>
       </c>
       <c r="H3">
-        <v>8.112896272857171</v>
+        <v>26.848801</v>
       </c>
       <c r="I3">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="J3">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N3">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P3">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q3">
-        <v>428.6009020114546</v>
+        <v>480.9650208938362</v>
       </c>
       <c r="R3">
-        <v>428.6009020114546</v>
+        <v>4328.685188044526</v>
       </c>
       <c r="S3">
-        <v>0.1086578315803469</v>
+        <v>0.1034797059995856</v>
       </c>
       <c r="T3">
-        <v>0.1086578315803469</v>
+        <v>0.1034797059995856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.112896272857171</v>
+        <v>8.949600333333334</v>
       </c>
       <c r="H4">
-        <v>8.112896272857171</v>
+        <v>26.848801</v>
       </c>
       <c r="I4">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="J4">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N4">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P4">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q4">
-        <v>144.7920189316411</v>
+        <v>196.700518199031</v>
       </c>
       <c r="R4">
-        <v>144.7920189316411</v>
+        <v>1770.304663791279</v>
       </c>
       <c r="S4">
-        <v>0.03670731147185545</v>
+        <v>0.0423201499256112</v>
       </c>
       <c r="T4">
-        <v>0.03670731147185545</v>
+        <v>0.04232014992561121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.112896272857171</v>
+        <v>8.949600333333334</v>
       </c>
       <c r="H5">
-        <v>8.112896272857171</v>
+        <v>26.848801</v>
       </c>
       <c r="I5">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="J5">
-        <v>0.2092113518427724</v>
+        <v>0.2240220633121465</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N5">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P5">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q5">
-        <v>114.2046115815395</v>
+        <v>128.0886339667395</v>
       </c>
       <c r="R5">
-        <v>114.2046115815395</v>
+        <v>1152.797705700655</v>
       </c>
       <c r="S5">
-        <v>0.02895286825736593</v>
+        <v>0.02755829137040806</v>
       </c>
       <c r="T5">
-        <v>0.02895286825736593</v>
+        <v>0.02755829137040806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.9922518460026</v>
+        <v>13.13839533333333</v>
       </c>
       <c r="H6">
-        <v>12.9922518460026</v>
+        <v>39.415186</v>
       </c>
       <c r="I6">
-        <v>0.3350377572652855</v>
+        <v>0.328873952082703</v>
       </c>
       <c r="J6">
-        <v>0.3350377572652855</v>
+        <v>0.3288739520827031</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N6">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P6">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q6">
-        <v>220.4159929422314</v>
+        <v>345.6971076534579</v>
       </c>
       <c r="R6">
-        <v>220.4159929422314</v>
+        <v>3111.27396888112</v>
       </c>
       <c r="S6">
-        <v>0.05587931272737229</v>
+        <v>0.07437679147312262</v>
       </c>
       <c r="T6">
-        <v>0.05587931272737229</v>
+        <v>0.07437679147312264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.9922518460026</v>
+        <v>13.13839533333333</v>
       </c>
       <c r="H7">
-        <v>12.9922518460026</v>
+        <v>39.415186</v>
       </c>
       <c r="I7">
-        <v>0.3350377572652855</v>
+        <v>0.328873952082703</v>
       </c>
       <c r="J7">
-        <v>0.3350377572652855</v>
+        <v>0.3288739520827031</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N7">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P7">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q7">
-        <v>686.3752072101385</v>
+        <v>706.0771822929612</v>
       </c>
       <c r="R7">
-        <v>686.3752072101385</v>
+        <v>6354.69464063665</v>
       </c>
       <c r="S7">
-        <v>0.1740081304447926</v>
+        <v>0.1519126257890988</v>
       </c>
       <c r="T7">
-        <v>0.1740081304447926</v>
+        <v>0.1519126257890989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.9922518460026</v>
+        <v>13.13839533333333</v>
       </c>
       <c r="H8">
-        <v>12.9922518460026</v>
+        <v>39.415186</v>
       </c>
       <c r="I8">
-        <v>0.3350377572652855</v>
+        <v>0.328873952082703</v>
       </c>
       <c r="J8">
-        <v>0.3350377572652855</v>
+        <v>0.3288739520827031</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N8">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P8">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q8">
-        <v>231.8745749954661</v>
+        <v>288.764757543966</v>
       </c>
       <c r="R8">
-        <v>231.8745749954661</v>
+        <v>2598.882817895694</v>
       </c>
       <c r="S8">
-        <v>0.05878426386734139</v>
+        <v>0.06212778666972321</v>
       </c>
       <c r="T8">
-        <v>0.05878426386734139</v>
+        <v>0.06212778666972323</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.9922518460026</v>
+        <v>13.13839533333333</v>
       </c>
       <c r="H9">
-        <v>12.9922518460026</v>
+        <v>39.415186</v>
       </c>
       <c r="I9">
-        <v>0.3350377572652855</v>
+        <v>0.328873952082703</v>
       </c>
       <c r="J9">
-        <v>0.3350377572652855</v>
+        <v>0.3288739520827031</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N9">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O9">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P9">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q9">
-        <v>182.890921532726</v>
+        <v>188.0395825603144</v>
       </c>
       <c r="R9">
-        <v>182.890921532726</v>
+        <v>1692.35624304283</v>
       </c>
       <c r="S9">
-        <v>0.04636605022577923</v>
+        <v>0.04045674815075833</v>
       </c>
       <c r="T9">
-        <v>0.04636605022577923</v>
+        <v>0.04045674815075834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9708813877339</v>
+        <v>11.041444</v>
       </c>
       <c r="H10">
-        <v>10.9708813877339</v>
+        <v>33.124332</v>
       </c>
       <c r="I10">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776585</v>
       </c>
       <c r="J10">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776586</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N10">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O10">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P10">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q10">
-        <v>186.1230634374458</v>
+        <v>290.5221800894934</v>
       </c>
       <c r="R10">
-        <v>186.1230634374458</v>
+        <v>2614.699620805441</v>
       </c>
       <c r="S10">
-        <v>0.04718545477924289</v>
+        <v>0.06250589642911955</v>
       </c>
       <c r="T10">
-        <v>0.04718545477924289</v>
+        <v>0.06250589642911956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9708813877339</v>
+        <v>11.041444</v>
       </c>
       <c r="H11">
-        <v>10.9708813877339</v>
+        <v>33.124332</v>
       </c>
       <c r="I11">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776585</v>
       </c>
       <c r="J11">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776586</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N11">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P11">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q11">
-        <v>579.5870550416207</v>
+        <v>593.3838547380334</v>
       </c>
       <c r="R11">
-        <v>579.5870550416207</v>
+        <v>5340.4546926423</v>
       </c>
       <c r="S11">
-        <v>0.1469354644782773</v>
+        <v>0.1276666372100812</v>
       </c>
       <c r="T11">
-        <v>0.1469354644782773</v>
+        <v>0.1276666372100813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.9708813877339</v>
+        <v>11.041444</v>
       </c>
       <c r="H12">
-        <v>10.9708813877339</v>
+        <v>33.124332</v>
       </c>
       <c r="I12">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776585</v>
       </c>
       <c r="J12">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776586</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N12">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O12">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P12">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q12">
-        <v>195.7988876184812</v>
+        <v>242.676507952692</v>
       </c>
       <c r="R12">
-        <v>195.7988876184812</v>
+        <v>2184.088571574228</v>
       </c>
       <c r="S12">
-        <v>0.04963844559034458</v>
+        <v>0.05221189193609505</v>
       </c>
       <c r="T12">
-        <v>0.04963844559034458</v>
+        <v>0.05221189193609506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.9708813877339</v>
+        <v>11.041444</v>
       </c>
       <c r="H13">
-        <v>10.9708813877339</v>
+        <v>33.124332</v>
       </c>
       <c r="I13">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776585</v>
       </c>
       <c r="J13">
-        <v>0.2829116568041851</v>
+        <v>0.2763840813776586</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N13">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O13">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P13">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q13">
-        <v>154.4362463729664</v>
+        <v>158.0275572432733</v>
       </c>
       <c r="R13">
-        <v>154.4362463729664</v>
+        <v>1422.24801518946</v>
       </c>
       <c r="S13">
-        <v>0.0391522919563204</v>
+        <v>0.0339996558023627</v>
       </c>
       <c r="T13">
-        <v>0.0391522919563204</v>
+        <v>0.0339996558023627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.70244117101189</v>
+        <v>6.820198333333334</v>
       </c>
       <c r="H14">
-        <v>6.70244117101189</v>
+        <v>20.460595</v>
       </c>
       <c r="I14">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="J14">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.965187833089</v>
+        <v>26.31197333333334</v>
       </c>
       <c r="N14">
-        <v>16.965187833089</v>
+        <v>78.93592000000001</v>
       </c>
       <c r="O14">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="P14">
-        <v>0.1667851205293457</v>
+        <v>0.2261559208386891</v>
       </c>
       <c r="Q14">
-        <v>113.7081734064457</v>
+        <v>179.4528766747111</v>
       </c>
       <c r="R14">
-        <v>113.7081734064457</v>
+        <v>1615.0758900724</v>
       </c>
       <c r="S14">
-        <v>0.02882701248952635</v>
+        <v>0.03860931691990532</v>
       </c>
       <c r="T14">
-        <v>0.02882701248952635</v>
+        <v>0.03860931691990532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.70244117101189</v>
+        <v>6.820198333333334</v>
       </c>
       <c r="H15">
-        <v>6.70244117101189</v>
+        <v>20.460595</v>
       </c>
       <c r="I15">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="J15">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.8295799177661</v>
+        <v>53.74150833333334</v>
       </c>
       <c r="N15">
-        <v>52.8295799177661</v>
+        <v>161.224525</v>
       </c>
       <c r="O15">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="P15">
-        <v>0.5193687179174006</v>
+        <v>0.461917475759518</v>
       </c>
       <c r="Q15">
-        <v>354.0871514880984</v>
+        <v>366.5277455658195</v>
       </c>
       <c r="R15">
-        <v>354.0871514880984</v>
+        <v>3298.749710092375</v>
       </c>
       <c r="S15">
-        <v>0.08976729141398386</v>
+        <v>0.07885850676075225</v>
       </c>
       <c r="T15">
-        <v>0.08976729141398386</v>
+        <v>0.07885850676075225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.70244117101189</v>
+        <v>6.820198333333334</v>
       </c>
       <c r="H16">
-        <v>6.70244117101189</v>
+        <v>20.460595</v>
       </c>
       <c r="I16">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="J16">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8471428774534</v>
+        <v>21.978693</v>
       </c>
       <c r="N16">
-        <v>17.8471428774534</v>
+        <v>65.93607899999999</v>
       </c>
       <c r="O16">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="P16">
-        <v>0.1754556392305228</v>
+        <v>0.1889106336220259</v>
       </c>
       <c r="Q16">
-        <v>119.6194252067753</v>
+        <v>149.899045367445</v>
       </c>
       <c r="R16">
-        <v>119.6194252067753</v>
+        <v>1349.091408307005</v>
       </c>
       <c r="S16">
-        <v>0.03032561830098138</v>
+        <v>0.03225080509059644</v>
       </c>
       <c r="T16">
-        <v>0.03032561830098138</v>
+        <v>0.03225080509059645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.70244117101189</v>
+        <v>6.820198333333334</v>
       </c>
       <c r="H17">
-        <v>6.70244117101189</v>
+        <v>20.460595</v>
       </c>
       <c r="I17">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="J17">
-        <v>0.1728392340877571</v>
+        <v>0.1707199032274919</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.076922438122</v>
+        <v>14.31221833333333</v>
       </c>
       <c r="N17">
-        <v>14.076922438122</v>
+        <v>42.936655</v>
       </c>
       <c r="O17">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="P17">
-        <v>0.138390522322731</v>
+        <v>0.123015969779767</v>
       </c>
       <c r="Q17">
-        <v>94.34974451040998</v>
+        <v>97.6121676233028</v>
       </c>
       <c r="R17">
-        <v>94.34974451040998</v>
+        <v>878.5095086097251</v>
       </c>
       <c r="S17">
-        <v>0.02391931188326548</v>
+        <v>0.02100127445623789</v>
       </c>
       <c r="T17">
-        <v>0.02391931188326548</v>
+        <v>0.02100127445623789</v>
       </c>
     </row>
   </sheetData>
